--- a/Story/4 - Dreamscape/2 - Beyond the Skies Part 1/Beyond the Skies Part 1.xlsx
+++ b/Story/4 - Dreamscape/2 - Beyond the Skies Part 1/Beyond the Skies Part 1.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\4 - Dreamscape\2 - Beyond the Skies Part 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB2F560-084D-4DE5-9002-C088B3175E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260C49D0-33E3-439B-AA32-07A7288686B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{7AD2D6A1-152F-4449-AE25-9035E1AD9B79}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7AD2D6A1-152F-4449-AE25-9035E1AD9B79}"/>
   </bookViews>
   <sheets>
     <sheet name="Castor Dreamscape" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Castor Dreamscape'!$A$1:$T$712</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19922,9 +19925,6 @@
     <t>これは鳥が空に歌う歌だ。\n外の世界は一体どんな様子なのか？\n忠実な騎士や美しい公主、無限の草原や勇敢な名馬がいるのか？\n行け、行って見てこい、今日出発の準備をしよう。\n足かせや柵を断ち切り、星空と月明かりに向かって飛ぼう。\n怪我や飢えを恐れることはない。\nその自由の道の終わりには、必ず清泉と花が満ちているだろう。</t>
   </si>
   <si>
-    <t>이것은 새가 하늘에 노래하는 노래다.\n바깥 세계는 도대체 어떤 모습일까?\n충직한 기사와 아름다운 공주가 있을까, 끝없는 초원과 용감한 맹수들이 있을까?\n가라, 가서 보아라, 오늘 바로 출발할 준비를 해라.\n발목과 난간을 끊고, 별과 달을 향해 날아가라.\n상처와 굶주림을 두려워하지 마라.\n그 자유의 길 끝은 반드시 맑은 샘과 꽃들로 가득 차 있을 것이다.</t>
-  </si>
-  <si>
     <t>นี่คือเพลงที่นกขับร้องให้ฟ้าผ่า。\nโลกภายนอกเป็นเช่นไร？\nมีอัศวินที่ซื่อสัตย์และเจ้าหญิงที่สวยงาม มีทุ่งหญ้าอันไม่มีที่สิ้นสุดและม้าผ่าเหล่าภูเขา?\nไปเถอะ ไปดูเถอะ เตรียมตัวออกเดินทางวันนี้\nกัดโซ่ตรวนและราวเหล็ก ทำให้บินไปสู่ท้องฟ้าและดวงจันทร์\nไม่ต้องกลัวการบาดเจ็บหรือความหิว\nที่ปลายถนนแห่งเสรีภาพ จะต้องเต็มไปด้วยน้ำพุและดอกไม้</t>
   </si>
   <si>
@@ -19958,9 +19958,6 @@
     <t>異夢視界</t>
   </si>
   <si>
-    <t>이몽시계</t>
-  </si>
-  <si>
     <t>Paysage de rêve</t>
   </si>
   <si>
@@ -20256,13 +20253,19 @@
   </si>
   <si>
     <t>Stage_89731_Name</t>
+  </si>
+  <si>
+    <t>이것은 새가 하늘에게 지저귀는 노래다.\n바깥 세상은 어떤 모습일까?\n충직한 기사와 아름다운 공주, 끝없는 초원과 용맹한 말들이 있을까?\n가라, 가서 보거라. 오늘 바로 떠날 준비를 하라.\n족쇄와 난간을 끊고, 별과 달을 향해 날아라.\n상처와 굶주림을 두려워하지 마라.\n자유의 길의 끝에는 반드시 맑은 샘과 꽃이 가득할 것이다.</t>
+  </si>
+  <si>
+    <t>이몽세계</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -20284,6 +20287,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -20309,10 +20318,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -20326,9 +20336,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{45A0F4A1-03DC-4E3C-8C89-919116C8E142}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -20544,68 +20558,68 @@
   <dimension ref="A1:S712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>6641</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6642</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>6643</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>6644</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6645</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6646</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>6647</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6648</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6649</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6650</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6651</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6652</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>6653</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>6654</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>6655</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>6656</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>6657</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>6658</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>6659</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>6660</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>6661</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20642,7 +20656,7 @@
       <c r="L2" t="s">
         <v>6612</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>6613</v>
       </c>
       <c r="N2" t="e">
@@ -20698,34 +20712,34 @@
       <c r="L3" t="s">
         <v>6623</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>6734</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3" t="s">
         <v>6624</v>
       </c>
-      <c r="N3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>6625</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>6626</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6627</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6627</v>
+      </c>
+      <c r="B4" t="s">
         <v>6628</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6629</v>
       </c>
       <c r="C4" t="s">
         <v>6606</v>
@@ -20737,61 +20751,61 @@
         <v>6607</v>
       </c>
       <c r="F4" t="s">
+        <v>6629</v>
+      </c>
+      <c r="H4" t="s">
         <v>6630</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>6631</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>6632</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>6633</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>6634</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="5" t="s">
+        <v>6735</v>
+      </c>
+      <c r="N4" t="s">
         <v>6635</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>6636</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>6637</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>6638</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>6639</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>6640</v>
-      </c>
-      <c r="R4" t="s">
-        <v>6641</v>
-      </c>
-      <c r="S4" t="s">
-        <v>6642</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6660</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6661</v>
+      </c>
+      <c r="C6" t="s">
         <v>6662</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6663</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6664</v>
       </c>
       <c r="D6">
         <v>1879</v>
       </c>
       <c r="E6" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F6" t="s">
         <v>6608</v>
@@ -20835,58 +20849,58 @@
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6666</v>
+        <v>6664</v>
       </c>
       <c r="B7" t="s">
-        <v>6667</v>
+        <v>6665</v>
       </c>
       <c r="C7" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D7">
         <v>1879</v>
       </c>
       <c r="E7" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F7" t="s">
         <v>6619</v>
       </c>
       <c r="H7" t="s">
+        <v>6666</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6667</v>
+      </c>
+      <c r="J7" t="s">
         <v>6668</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="s">
         <v>6669</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>6670</v>
       </c>
-      <c r="K7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q7" t="s">
         <v>6671</v>
       </c>
-      <c r="M7" t="s">
+      <c r="R7" t="s">
         <v>6672</v>
       </c>
-      <c r="N7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>6673</v>
-      </c>
-      <c r="R7" t="s">
-        <v>6674</v>
-      </c>
-      <c r="S7" t="s">
-        <v>6675</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27274,19 +27288,19 @@
     </row>
     <row r="120" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>6676</v>
+        <v>6674</v>
       </c>
       <c r="B120" t="s">
-        <v>6677</v>
+        <v>6675</v>
       </c>
       <c r="C120" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D120">
         <v>1880</v>
       </c>
       <c r="E120" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F120" t="s">
         <v>6608</v>
@@ -27330,58 +27344,58 @@
     </row>
     <row r="121" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>6678</v>
+        <v>6676</v>
       </c>
       <c r="B121" t="s">
-        <v>6679</v>
+        <v>6677</v>
       </c>
       <c r="C121" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D121">
         <v>1880</v>
       </c>
       <c r="E121" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F121" t="s">
         <v>6619</v>
       </c>
       <c r="H121" t="s">
+        <v>6678</v>
+      </c>
+      <c r="I121" t="s">
+        <v>6679</v>
+      </c>
+      <c r="J121" t="s">
         <v>6680</v>
       </c>
-      <c r="I121" t="s">
+      <c r="K121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L121" t="s">
         <v>6681</v>
       </c>
-      <c r="J121" t="s">
+      <c r="M121" t="s">
         <v>6682</v>
       </c>
-      <c r="K121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L121" t="s">
+      <c r="N121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q121" t="s">
         <v>6683</v>
       </c>
-      <c r="M121" t="s">
+      <c r="R121" t="s">
         <v>6684</v>
       </c>
-      <c r="N121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q121" t="s">
+      <c r="S121" t="s">
         <v>6685</v>
-      </c>
-      <c r="R121" t="s">
-        <v>6686</v>
-      </c>
-      <c r="S121" t="s">
-        <v>6687</v>
       </c>
     </row>
     <row r="122" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -33869,19 +33883,19 @@
     </row>
     <row r="236" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>6688</v>
+        <v>6686</v>
       </c>
       <c r="B236" t="s">
-        <v>6689</v>
+        <v>6687</v>
       </c>
       <c r="C236" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D236">
         <v>1881</v>
       </c>
       <c r="E236" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F236" t="s">
         <v>6608</v>
@@ -33925,58 +33939,58 @@
     </row>
     <row r="237" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>6690</v>
+        <v>6688</v>
       </c>
       <c r="B237" t="s">
-        <v>6691</v>
+        <v>6689</v>
       </c>
       <c r="C237" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D237">
         <v>1881</v>
       </c>
       <c r="E237" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F237" t="s">
         <v>6619</v>
       </c>
       <c r="H237" t="s">
+        <v>6690</v>
+      </c>
+      <c r="I237" t="s">
+        <v>6691</v>
+      </c>
+      <c r="J237" t="s">
         <v>6692</v>
       </c>
-      <c r="I237" t="s">
+      <c r="K237" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L237" t="s">
         <v>6693</v>
       </c>
-      <c r="J237" t="s">
+      <c r="M237" t="s">
         <v>6694</v>
       </c>
-      <c r="K237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L237" t="s">
+      <c r="N237" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O237" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P237" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q237" t="s">
         <v>6695</v>
       </c>
-      <c r="M237" t="s">
+      <c r="R237" t="s">
         <v>6696</v>
       </c>
-      <c r="N237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="O237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P237" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q237" t="s">
+      <c r="S237" t="s">
         <v>6697</v>
-      </c>
-      <c r="R237" t="s">
-        <v>6698</v>
-      </c>
-      <c r="S237" t="s">
-        <v>6699</v>
       </c>
     </row>
     <row r="238" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -40725,19 +40739,19 @@
     </row>
     <row r="356" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>6711</v>
+        <v>6709</v>
       </c>
       <c r="B356" t="s">
-        <v>6710</v>
+        <v>6708</v>
       </c>
       <c r="C356" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D356">
         <v>1882</v>
       </c>
       <c r="E356" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F356" t="s">
         <v>6608</v>
@@ -40781,40 +40795,40 @@
     </row>
     <row r="357" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>6709</v>
+        <v>6707</v>
       </c>
       <c r="B357" t="s">
-        <v>6708</v>
+        <v>6706</v>
       </c>
       <c r="C357" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D357">
         <v>1882</v>
       </c>
       <c r="E357" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F357" t="s">
         <v>6619</v>
       </c>
       <c r="H357" t="s">
-        <v>6707</v>
+        <v>6705</v>
       </c>
       <c r="I357" t="s">
-        <v>6706</v>
+        <v>6704</v>
       </c>
       <c r="J357" t="s">
-        <v>6705</v>
+        <v>6703</v>
       </c>
       <c r="K357" t="e">
         <v>#N/A</v>
       </c>
       <c r="L357" t="s">
-        <v>6704</v>
+        <v>6702</v>
       </c>
       <c r="M357" t="s">
-        <v>6703</v>
+        <v>6701</v>
       </c>
       <c r="N357" t="e">
         <v>#N/A</v>
@@ -40826,13 +40840,13 @@
         <v>#N/A</v>
       </c>
       <c r="Q357" t="s">
-        <v>6702</v>
+        <v>6700</v>
       </c>
       <c r="R357" t="s">
-        <v>6701</v>
+        <v>6699</v>
       </c>
       <c r="S357" t="s">
-        <v>6700</v>
+        <v>6698</v>
       </c>
     </row>
     <row r="358" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -48663,19 +48677,19 @@
     </row>
     <row r="495" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>6723</v>
+        <v>6721</v>
       </c>
       <c r="B495" t="s">
-        <v>6722</v>
+        <v>6720</v>
       </c>
       <c r="C495" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D495">
         <v>1883</v>
       </c>
       <c r="E495" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F495" t="s">
         <v>6608</v>
@@ -48719,40 +48733,40 @@
     </row>
     <row r="496" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>6721</v>
+        <v>6719</v>
       </c>
       <c r="B496" t="s">
-        <v>6720</v>
+        <v>6718</v>
       </c>
       <c r="C496" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D496">
         <v>1883</v>
       </c>
       <c r="E496" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F496" t="s">
         <v>6619</v>
       </c>
       <c r="H496" t="s">
-        <v>6719</v>
+        <v>6717</v>
       </c>
       <c r="I496" t="s">
-        <v>6718</v>
+        <v>6716</v>
       </c>
       <c r="J496" t="s">
-        <v>6717</v>
+        <v>6715</v>
       </c>
       <c r="K496" t="e">
         <v>#N/A</v>
       </c>
       <c r="L496" t="s">
-        <v>6716</v>
+        <v>6714</v>
       </c>
       <c r="M496" t="s">
-        <v>6715</v>
+        <v>6713</v>
       </c>
       <c r="N496" t="e">
         <v>#N/A</v>
@@ -48764,13 +48778,13 @@
         <v>#N/A</v>
       </c>
       <c r="Q496" t="s">
-        <v>6714</v>
+        <v>6712</v>
       </c>
       <c r="R496" t="s">
-        <v>6713</v>
+        <v>6711</v>
       </c>
       <c r="S496" t="s">
-        <v>6712</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="497" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -55344,19 +55358,19 @@
     </row>
     <row r="612" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>6735</v>
+        <v>6733</v>
       </c>
       <c r="B612" t="s">
-        <v>6734</v>
+        <v>6732</v>
       </c>
       <c r="C612" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D612">
         <v>1884</v>
       </c>
       <c r="E612" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F612" t="s">
         <v>6608</v>
@@ -55400,40 +55414,40 @@
     </row>
     <row r="613" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>6733</v>
+        <v>6731</v>
       </c>
       <c r="B613" t="s">
-        <v>6732</v>
+        <v>6730</v>
       </c>
       <c r="C613" t="s">
-        <v>6664</v>
+        <v>6662</v>
       </c>
       <c r="D613">
         <v>1884</v>
       </c>
       <c r="E613" t="s">
-        <v>6665</v>
+        <v>6663</v>
       </c>
       <c r="F613" t="s">
         <v>6619</v>
       </c>
       <c r="H613" t="s">
-        <v>6731</v>
+        <v>6729</v>
       </c>
       <c r="I613" t="s">
-        <v>6730</v>
+        <v>6728</v>
       </c>
       <c r="J613" t="s">
-        <v>6729</v>
+        <v>6727</v>
       </c>
       <c r="K613" t="e">
         <v>#N/A</v>
       </c>
       <c r="L613" t="s">
-        <v>6728</v>
+        <v>6726</v>
       </c>
       <c r="M613" t="s">
-        <v>6727</v>
+        <v>6725</v>
       </c>
       <c r="N613" t="e">
         <v>#N/A</v>
@@ -55445,13 +55459,13 @@
         <v>#N/A</v>
       </c>
       <c r="Q613" t="s">
-        <v>6726</v>
+        <v>6724</v>
       </c>
       <c r="R613" t="s">
-        <v>6725</v>
+        <v>6723</v>
       </c>
       <c r="S613" t="s">
-        <v>6724</v>
+        <v>6722</v>
       </c>
     </row>
     <row r="614" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
